--- a/biology/Botanique/Trapelia/Trapelia.xlsx
+++ b/biology/Botanique/Trapelia/Trapelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trapelia est un genre de lichens de la famille des Trapeliaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trapelia est un genre de lichens de la famille des Trapeliaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Discocera A.L.Sm. &amp; Ramsb. (1918)
 Trapelina Motyka (1996)</t>
@@ -542,11 +556,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trapelia antarctica Ertz, Aptroot, G.Thor &amp; Øvstedal (2014)
-Trapelia atrocarpa Elix &amp; P.M.McCarthy (2020)[3]
-Trapelia calvariana Kantvilas &amp; Lumbsch (2014)[4]
+Trapelia atrocarpa Elix &amp; P.M.McCarthy (2020)
+Trapelia calvariana Kantvilas &amp; Lumbsch (2014)
 Trapelia coarctata (Turner) M.Choisy (1932)
 Trapelia collaris Orange (2018)
 Trapelia concentrica Elix &amp; P.M.McCarthy (2019)
@@ -564,7 +580,7 @@
 Trapelia rubra Aptroot &amp; Schumm (2012)
 Trapelia sitiens Orange (2018)
 Trapelia stipitata Brodo &amp; Lendemer (2015)
-Trapelia thieleana Kantvilas, Lumbsch &amp; Elix (2014)[4]
+Trapelia thieleana Kantvilas, Lumbsch &amp; Elix (2014)
 Trapelia tristis Orange (2018)</t>
         </is>
       </c>
